--- a/fpl_goalkeeper.xlsx
+++ b/fpl_goalkeeper.xlsx
@@ -1394,7 +1394,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>29 (0)</t>
+          <t>30 (0)</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -1440,16 +1440,16 @@
         <v>0.03</v>
       </c>
       <c r="T4" t="n">
-        <v>4.14</v>
+        <v>4.19</v>
       </c>
       <c r="U4" t="n">
-        <v>22.07</v>
+        <v>22.37</v>
       </c>
       <c r="V4" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="W4" t="n">
-        <v>5</v>
+        <v>5.03</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -1470,13 +1470,13 @@
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG4" t="n">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>32.66</v>
+        <v>33.53</v>
       </c>
       <c r="AK4" t="n">
-        <v>27.66</v>
+        <v>28.53</v>
       </c>
       <c r="AL4" t="n">
         <v>85</v>
       </c>
       <c r="AM4" t="n">
-        <v>5.9</v>
+        <v>5.83</v>
       </c>
       <c r="AN4" t="n">
-        <v>2.21</v>
+        <v>2.17</v>
       </c>
       <c r="AO4" t="n">
         <v>37</v>
@@ -1512,13 +1512,13 @@
         <v>0</v>
       </c>
       <c r="AR4" t="n">
-        <v>43.21</v>
+        <v>44.1</v>
       </c>
       <c r="AS4" t="n">
         <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AU4" t="n">
         <v>0.17</v>
@@ -1554,10 +1554,10 @@
         <v>0</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="BH4" t="n">
         <v>0.1</v>
@@ -1569,10 +1569,10 @@
         <v>30</v>
       </c>
       <c r="BK4" t="n">
-        <v>8.970000000000001</v>
+        <v>9.07</v>
       </c>
       <c r="BL4" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="BM4" t="n">
         <v>0</v>
@@ -1581,34 +1581,34 @@
         <v>0</v>
       </c>
       <c r="BO4" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="BP4" t="n">
-        <v>8.029999999999999</v>
+        <v>7.83</v>
       </c>
       <c r="BQ4" t="n">
-        <v>5.41</v>
+        <v>5.27</v>
       </c>
       <c r="BR4" t="n">
-        <v>2.93</v>
+        <v>2.87</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="BT4" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="BU4" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="BV4" t="n">
-        <v>1.01</v>
+        <v>0.98</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="BX4" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="BY4" t="n">
         <v>0</v>
@@ -1620,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="CC4" t="n">
-        <v>20.61</v>
+        <v>20.51</v>
       </c>
       <c r="CD4" t="n">
         <v>0.04</v>
       </c>
       <c r="CE4" t="n">
-        <v>14.72</v>
+        <v>14.87</v>
       </c>
       <c r="CF4" t="n">
-        <v>3</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="5">
@@ -1898,23 +1898,23 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ramsdale (G)</t>
+          <t>Ederson (G)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ARS</t>
+          <t>MCI</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5.1</v>
+        <v>6.1</v>
       </c>
       <c r="D6" t="n">
         <v>90</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>26 (0)</t>
+          <t>31 (0)</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -1960,16 +1960,16 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>4.01</v>
+        <v>4.36</v>
       </c>
       <c r="U6" t="n">
-        <v>20.58</v>
+        <v>19.97</v>
       </c>
       <c r="V6" t="n">
-        <v>0.54</v>
+        <v>0.13</v>
       </c>
       <c r="W6" t="n">
-        <v>4.58</v>
+        <v>4.39</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1990,13 +1990,13 @@
         <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>7</v>
+        <v>1.45</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.35</v>
+        <v>0.23</v>
       </c>
       <c r="AF6" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AG6" t="n">
         <v>0</v>
@@ -2008,40 +2008,40 @@
         <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>29.96</v>
+        <v>27</v>
       </c>
       <c r="AK6" t="n">
-        <v>18.96</v>
+        <v>23.84</v>
       </c>
       <c r="AL6" t="n">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="AM6" t="n">
-        <v>12.85</v>
+        <v>3.16</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.27</v>
+        <v>0.77</v>
       </c>
       <c r="AO6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP6" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AR6" t="n">
-        <v>40.27</v>
+        <v>34.94</v>
       </c>
       <c r="AS6" t="n">
         <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>7</v>
+        <v>1.45</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.35</v>
+        <v>0.29</v>
       </c>
       <c r="AV6" t="n">
         <v>0</v>
@@ -2074,25 +2074,25 @@
         <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.46</v>
+        <v>0.58</v>
       </c>
       <c r="BG6" t="n">
-        <v>1.04</v>
+        <v>0.65</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="BJ6" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BK6" t="n">
-        <v>9.27</v>
+        <v>6.42</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.96</v>
+        <v>0.52</v>
       </c>
       <c r="BM6" t="n">
         <v>0</v>
@@ -2101,37 +2101,37 @@
         <v>0</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.96</v>
+        <v>0.52</v>
       </c>
       <c r="BP6" t="n">
-        <v>10.73</v>
+        <v>6.26</v>
       </c>
       <c r="BQ6" t="n">
-        <v>6.12</v>
+        <v>4.13</v>
       </c>
       <c r="BR6" t="n">
-        <v>3.88</v>
+        <v>2.29</v>
       </c>
       <c r="BS6" t="n">
-        <v>0.77</v>
+        <v>0.48</v>
       </c>
       <c r="BT6" t="n">
-        <v>1.58</v>
+        <v>1.06</v>
       </c>
       <c r="BU6" t="n">
-        <v>1.38</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="BV6" t="n">
-        <v>1.18</v>
+        <v>0.73</v>
       </c>
       <c r="BW6" t="n">
-        <v>0.36</v>
+        <v>0.52</v>
       </c>
       <c r="BX6" t="n">
-        <v>2.85</v>
+        <v>1.71</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="BZ6" t="n">
         <v>0</v>
@@ -2140,41 +2140,41 @@
         <v>0</v>
       </c>
       <c r="CB6" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="CC6" t="n">
-        <v>21.28</v>
+        <v>15.61</v>
       </c>
       <c r="CD6" t="n">
         <v>0</v>
       </c>
       <c r="CE6" t="n">
-        <v>15.04</v>
+        <v>13</v>
       </c>
       <c r="CF6" t="n">
-        <v>2.62</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ederson (G)</t>
+          <t>Ramsdale (G)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>ARS</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6.1</v>
+        <v>5.1</v>
       </c>
       <c r="D7" t="n">
         <v>90</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>30 (0)</t>
+          <t>28 (0)</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -2220,16 +2220,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>4.32</v>
+        <v>4</v>
       </c>
       <c r="U7" t="n">
-        <v>19.7</v>
+        <v>20.14</v>
       </c>
       <c r="V7" t="n">
-        <v>0.13</v>
+        <v>0.5</v>
       </c>
       <c r="W7" t="n">
-        <v>4.33</v>
+        <v>4.36</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>1.43</v>
+        <v>6.93</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.23</v>
+        <v>1.36</v>
       </c>
       <c r="AF7" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
@@ -2268,40 +2268,40 @@
         <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>26.87</v>
+        <v>29.82</v>
       </c>
       <c r="AK7" t="n">
-        <v>23.7</v>
+        <v>19</v>
       </c>
       <c r="AL7" t="n">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="AM7" t="n">
-        <v>3.13</v>
+        <v>12.68</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.77</v>
+        <v>3.32</v>
       </c>
       <c r="AO7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>34.8</v>
+        <v>40.11</v>
       </c>
       <c r="AS7" t="n">
         <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.43</v>
+        <v>6.93</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AV7" t="n">
         <v>0</v>
@@ -2334,25 +2334,25 @@
         <v>0</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.57</v>
+        <v>0.43</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.67</v>
+        <v>1.07</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="BJ7" t="n">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="BK7" t="n">
-        <v>6.37</v>
+        <v>9.25</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.53</v>
+        <v>1.11</v>
       </c>
       <c r="BM7" t="n">
         <v>0</v>
@@ -2361,37 +2361,37 @@
         <v>0</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.53</v>
+        <v>1.11</v>
       </c>
       <c r="BP7" t="n">
-        <v>6.4</v>
+        <v>10.68</v>
       </c>
       <c r="BQ7" t="n">
-        <v>4.23</v>
+        <v>6.21</v>
       </c>
       <c r="BR7" t="n">
-        <v>2.33</v>
+        <v>3.79</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="BT7" t="n">
-        <v>1.07</v>
+        <v>1.5</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.97</v>
+        <v>1.32</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.75</v>
+        <v>1.15</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.51</v>
+        <v>0.36</v>
       </c>
       <c r="BX7" t="n">
-        <v>1.73</v>
+        <v>2.71</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="BZ7" t="n">
         <v>0</v>
@@ -2400,19 +2400,19 @@
         <v>0</v>
       </c>
       <c r="CB7" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="CC7" t="n">
-        <v>15.69</v>
+        <v>20.62</v>
       </c>
       <c r="CD7" t="n">
         <v>0</v>
       </c>
       <c r="CE7" t="n">
-        <v>12.9</v>
+        <v>15</v>
       </c>
       <c r="CF7" t="n">
-        <v>2.43</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="8">
@@ -2678,23 +2678,23 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mendy (G)</t>
+          <t>Raya (G)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CHE</t>
+          <t>BRE</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6.1</v>
+        <v>4.3</v>
       </c>
       <c r="D9" t="n">
         <v>90</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>26 (0)</t>
+          <t>19 (0)</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -2740,16 +2740,16 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>3.95</v>
+        <v>4.08</v>
       </c>
       <c r="U9" t="n">
-        <v>17.81</v>
+        <v>20.95</v>
       </c>
       <c r="V9" t="n">
-        <v>0.12</v>
+        <v>0.26</v>
       </c>
       <c r="W9" t="n">
-        <v>4.15</v>
+        <v>4.05</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -2770,41 +2770,41 @@
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>1.04</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.38</v>
+        <v>3.21</v>
       </c>
       <c r="AF9" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>40.42</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>25.53</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>63</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>19.21</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="AO9" t="n">
         <v>37</v>
       </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>23.81</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>19.23</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>39</v>
-      </c>
       <c r="AP9" t="n">
         <v>0</v>
       </c>
@@ -2812,16 +2812,16 @@
         <v>0</v>
       </c>
       <c r="AR9" t="n">
-        <v>32.54</v>
+        <v>51.32</v>
       </c>
       <c r="AS9" t="n">
         <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.04</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.15</v>
+        <v>0.32</v>
       </c>
       <c r="AV9" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.46</v>
+        <v>0.32</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="BH9" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="BI9" t="n">
         <v>0</v>
@@ -2869,10 +2869,10 @@
         <v>0</v>
       </c>
       <c r="BK9" t="n">
-        <v>6.42</v>
+        <v>10.79</v>
       </c>
       <c r="BL9" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="BM9" t="n">
         <v>0</v>
@@ -2881,37 +2881,37 @@
         <v>0</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="BP9" t="n">
-        <v>9.27</v>
+        <v>13.05</v>
       </c>
       <c r="BQ9" t="n">
-        <v>5.73</v>
+        <v>7.89</v>
       </c>
       <c r="BR9" t="n">
-        <v>3.31</v>
+        <v>4.47</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.73</v>
+        <v>0.68</v>
       </c>
       <c r="BT9" t="n">
-        <v>1.54</v>
+        <v>2.26</v>
       </c>
       <c r="BU9" t="n">
-        <v>1.31</v>
+        <v>1.47</v>
       </c>
       <c r="BV9" t="n">
-        <v>1.09</v>
+        <v>1.32</v>
       </c>
       <c r="BW9" t="n">
-        <v>0.38</v>
+        <v>0.32</v>
       </c>
       <c r="BX9" t="n">
-        <v>2.38</v>
+        <v>3.37</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="BZ9" t="n">
         <v>0</v>
@@ -2920,41 +2920,41 @@
         <v>0</v>
       </c>
       <c r="CB9" t="n">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="CC9" t="n">
-        <v>18.02</v>
+        <v>26.42</v>
       </c>
       <c r="CD9" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="CE9" t="n">
-        <v>12.27</v>
+        <v>17.16</v>
       </c>
       <c r="CF9" t="n">
-        <v>2.27</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Raya (G)</t>
+          <t>Lloris (G)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BRE</t>
+          <t>TOT</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="D10" t="n">
         <v>90</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>18 (0)</t>
+          <t>32 (0)</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -2976,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -2991,25 +2991,25 @@
         <v>0.06</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="U10" t="n">
-        <v>20.94</v>
+        <v>18.47</v>
       </c>
       <c r="V10" t="n">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
       <c r="W10" t="n">
-        <v>4.11</v>
+        <v>4.03</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -3030,13 +3030,13 @@
         <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>9.109999999999999</v>
+        <v>1.44</v>
       </c>
       <c r="AE10" t="n">
-        <v>3.11</v>
+        <v>0.53</v>
       </c>
       <c r="AF10" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
@@ -3048,40 +3048,40 @@
         <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>40.83</v>
+        <v>21.06</v>
       </c>
       <c r="AK10" t="n">
-        <v>25.28</v>
+        <v>16.28</v>
       </c>
       <c r="AL10" t="n">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="AM10" t="n">
-        <v>19.78</v>
+        <v>5.56</v>
       </c>
       <c r="AN10" t="n">
-        <v>7.11</v>
+        <v>2.28</v>
       </c>
       <c r="AO10" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="AP10" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AR10" t="n">
-        <v>51.72</v>
+        <v>30.12</v>
       </c>
       <c r="AS10" t="n">
         <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>9.109999999999999</v>
+        <v>1.44</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.28</v>
+        <v>0.06</v>
       </c>
       <c r="AV10" t="n">
         <v>0</v>
@@ -3114,25 +3114,25 @@
         <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="BG10" t="n">
-        <v>1.06</v>
+        <v>1.19</v>
       </c>
       <c r="BH10" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="BI10" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BK10" t="n">
-        <v>10.78</v>
+        <v>7.12</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.61</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="BM10" t="n">
         <v>0</v>
@@ -3141,37 +3141,37 @@
         <v>0</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.61</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="BP10" t="n">
-        <v>12.83</v>
+        <v>13.22</v>
       </c>
       <c r="BQ10" t="n">
-        <v>7.67</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="BR10" t="n">
-        <v>4.5</v>
+        <v>4.03</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.61</v>
+        <v>1.03</v>
       </c>
       <c r="BT10" t="n">
-        <v>2.28</v>
+        <v>2.47</v>
       </c>
       <c r="BU10" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="BV10" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="BX10" t="n">
-        <v>3.39</v>
+        <v>2.75</v>
       </c>
       <c r="BY10" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="BZ10" t="n">
         <v>0</v>
@@ -3180,41 +3180,41 @@
         <v>0</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="CC10" t="n">
-        <v>26.71</v>
+        <v>21.09</v>
       </c>
       <c r="CD10" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="CE10" t="n">
-        <v>16.94</v>
+        <v>13.97</v>
       </c>
       <c r="CF10" t="n">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Lloris (G)</t>
+          <t>Kelleher (G)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TOT</t>
+          <t>LIV</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
       <c r="D11" t="n">
         <v>90</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>31 (0)</t>
+          <t>2 (0)</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -3248,28 +3248,28 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>3.94</v>
+        <v>4.23</v>
       </c>
       <c r="U11" t="n">
-        <v>18.45</v>
+        <v>26</v>
       </c>
       <c r="V11" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>4.06</v>
+        <v>4</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -3290,13 +3290,13 @@
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>1.39</v>
+        <v>0.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
         <v>0</v>
@@ -3308,40 +3308,40 @@
         <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>20.74</v>
+        <v>39</v>
       </c>
       <c r="AK11" t="n">
-        <v>15.94</v>
+        <v>35</v>
       </c>
       <c r="AL11" t="n">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="AM11" t="n">
-        <v>5.61</v>
+        <v>3.5</v>
       </c>
       <c r="AN11" t="n">
-        <v>2.32</v>
+        <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>29.9</v>
+        <v>50</v>
       </c>
       <c r="AS11" t="n">
         <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.39</v>
+        <v>0.5</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="AV11" t="n">
         <v>0</v>
@@ -3374,25 +3374,25 @@
         <v>0</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.39</v>
+        <v>0.5</v>
       </c>
       <c r="BG11" t="n">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.03</v>
+        <v>0.5</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.03</v>
+        <v>0.5</v>
       </c>
       <c r="BJ11" t="n">
         <v>100</v>
       </c>
       <c r="BK11" t="n">
-        <v>7.06</v>
+        <v>8.5</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="BM11" t="n">
         <v>0</v>
@@ -3401,37 +3401,37 @@
         <v>0</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="BP11" t="n">
-        <v>13.26</v>
+        <v>10.5</v>
       </c>
       <c r="BQ11" t="n">
-        <v>8.48</v>
+        <v>7</v>
       </c>
       <c r="BR11" t="n">
         <v>4</v>
       </c>
       <c r="BS11" t="n">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="BT11" t="n">
-        <v>2.45</v>
+        <v>1</v>
       </c>
       <c r="BU11" t="n">
-        <v>1.39</v>
+        <v>1</v>
       </c>
       <c r="BV11" t="n">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
       <c r="BX11" t="n">
-        <v>2.74</v>
+        <v>3</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="BZ11" t="n">
         <v>0</v>
@@ -3440,41 +3440,41 @@
         <v>0</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="CC11" t="n">
-        <v>21.1</v>
+        <v>23.1</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="CE11" t="n">
-        <v>13.81</v>
+        <v>20</v>
       </c>
       <c r="CF11" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Kelleher (G)</t>
+          <t>Mendy (G)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LIV</t>
+          <t>CHE</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4.3</v>
+        <v>6.1</v>
       </c>
       <c r="D12" t="n">
         <v>90</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2 (0)</t>
+          <t>27 (0)</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -3520,13 +3520,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>4.23</v>
+        <v>3.88</v>
       </c>
       <c r="U12" t="n">
-        <v>26</v>
+        <v>17.41</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="W12" t="n">
         <v>4</v>
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="AG12" t="n">
         <v>0</v>
@@ -3568,40 +3568,40 @@
         <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>39</v>
+        <v>24.11</v>
       </c>
       <c r="AK12" t="n">
-        <v>35</v>
+        <v>19.33</v>
       </c>
       <c r="AL12" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AM12" t="n">
-        <v>3.5</v>
+        <v>4.48</v>
       </c>
       <c r="AN12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>38</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>32.74</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="n">
         <v>1</v>
       </c>
-      <c r="AO12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>50</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>0.5</v>
-      </c>
       <c r="AU12" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="AV12" t="n">
         <v>0</v>
@@ -3634,25 +3634,25 @@
         <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="BG12" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.5</v>
+        <v>0.04</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BK12" t="n">
-        <v>8.5</v>
+        <v>6.37</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.5</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="BM12" t="n">
         <v>0</v>
@@ -3661,37 +3661,37 @@
         <v>0</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.5</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="BP12" t="n">
-        <v>10.5</v>
+        <v>9.44</v>
       </c>
       <c r="BQ12" t="n">
-        <v>7</v>
+        <v>5.89</v>
       </c>
       <c r="BR12" t="n">
-        <v>4</v>
+        <v>3.33</v>
       </c>
       <c r="BS12" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="BT12" t="n">
-        <v>1</v>
+        <v>1.52</v>
       </c>
       <c r="BU12" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="BV12" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="BX12" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="BY12" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="BZ12" t="n">
         <v>0</v>
@@ -3703,38 +3703,38 @@
         <v>0</v>
       </c>
       <c r="CC12" t="n">
-        <v>23.1</v>
+        <v>17.53</v>
       </c>
       <c r="CD12" t="n">
         <v>0</v>
       </c>
       <c r="CE12" t="n">
-        <v>20</v>
+        <v>12.07</v>
       </c>
       <c r="CF12" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>de Gea (G)</t>
+          <t>Gunn (G)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MUN</t>
+          <t>NOR</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>90</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>31 (0)</t>
+          <t>7 (0)</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -3780,16 +3780,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>3.63</v>
+        <v>2.86</v>
       </c>
       <c r="U13" t="n">
-        <v>18.13</v>
+        <v>20.57</v>
       </c>
       <c r="V13" t="n">
-        <v>0.23</v>
+        <v>0.43</v>
       </c>
       <c r="W13" t="n">
-        <v>3.77</v>
+        <v>3.71</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -3810,13 +3810,13 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>1.61</v>
+        <v>3.57</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.29</v>
+        <v>1.29</v>
       </c>
       <c r="AF13" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>20.9</v>
+        <v>26.57</v>
       </c>
       <c r="AK13" t="n">
-        <v>14.52</v>
+        <v>17.29</v>
       </c>
       <c r="AL13" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AM13" t="n">
-        <v>6.03</v>
+        <v>10.14</v>
       </c>
       <c r="AN13" t="n">
-        <v>1.45</v>
+        <v>3.43</v>
       </c>
       <c r="AO13" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AP13" t="n">
         <v>0</v>
@@ -3852,16 +3852,16 @@
         <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>28.84</v>
+        <v>38.14</v>
       </c>
       <c r="AS13" t="n">
         <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.61</v>
+        <v>3.57</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="AV13" t="n">
         <v>0</v>
@@ -3894,10 +3894,10 @@
         <v>0</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.23</v>
+        <v>0.14</v>
       </c>
       <c r="BG13" t="n">
-        <v>1.35</v>
+        <v>2.57</v>
       </c>
       <c r="BH13" t="n">
         <v>0</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="BK13" t="n">
-        <v>5.32</v>
+        <v>8.43</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.52</v>
+        <v>1.43</v>
       </c>
       <c r="BM13" t="n">
         <v>0</v>
@@ -3921,34 +3921,34 @@
         <v>0</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.52</v>
+        <v>1.43</v>
       </c>
       <c r="BP13" t="n">
-        <v>13.29</v>
+        <v>20.14</v>
       </c>
       <c r="BQ13" t="n">
-        <v>8.289999999999999</v>
+        <v>13.86</v>
       </c>
       <c r="BR13" t="n">
-        <v>4.81</v>
+        <v>6.71</v>
       </c>
       <c r="BS13" t="n">
-        <v>1.13</v>
+        <v>1.29</v>
       </c>
       <c r="BT13" t="n">
-        <v>1.94</v>
+        <v>3.14</v>
       </c>
       <c r="BU13" t="n">
-        <v>1.87</v>
+        <v>3.29</v>
       </c>
       <c r="BV13" t="n">
-        <v>1.5</v>
+        <v>2.49</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.26</v>
+        <v>0.09</v>
       </c>
       <c r="BX13" t="n">
-        <v>3.52</v>
+        <v>3.86</v>
       </c>
       <c r="BY13" t="n">
         <v>0</v>
@@ -3960,19 +3960,19 @@
         <v>0</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="CC13" t="n">
-        <v>26.74</v>
+        <v>34.14</v>
       </c>
       <c r="CD13" t="n">
         <v>0</v>
       </c>
       <c r="CE13" t="n">
-        <v>14.45</v>
+        <v>16.71</v>
       </c>
       <c r="CF13" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="14">
@@ -3994,7 +3994,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>26 (0)</t>
+          <t>27 (0)</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -4040,16 +4040,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>3.72</v>
+        <v>3.76</v>
       </c>
       <c r="U14" t="n">
-        <v>18.54</v>
+        <v>18.44</v>
       </c>
       <c r="V14" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="W14" t="n">
-        <v>3.73</v>
+        <v>3.7</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -4070,13 +4070,13 @@
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AF14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG14" t="n">
         <v>0</v>
@@ -4088,22 +4088,22 @@
         <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>25.77</v>
+        <v>25.96</v>
       </c>
       <c r="AK14" t="n">
-        <v>19.54</v>
+        <v>19.52</v>
       </c>
       <c r="AL14" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AM14" t="n">
-        <v>6.15</v>
+        <v>6.33</v>
       </c>
       <c r="AN14" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="AO14" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AP14" t="n">
         <v>0</v>
@@ -4112,16 +4112,16 @@
         <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>36.12</v>
+        <v>36.44</v>
       </c>
       <c r="AS14" t="n">
         <v>0</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AV14" t="n">
         <v>0</v>
@@ -4154,7 +4154,7 @@
         <v>0</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="BG14" t="n">
         <v>1.19</v>
@@ -4169,49 +4169,49 @@
         <v>0</v>
       </c>
       <c r="BK14" t="n">
-        <v>8.27</v>
+        <v>8.44</v>
       </c>
       <c r="BL14" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="BM14" t="n">
         <v>0</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="BO14" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="BP14" t="n">
-        <v>11.85</v>
+        <v>11.89</v>
       </c>
       <c r="BQ14" t="n">
-        <v>7.12</v>
+        <v>7.19</v>
       </c>
       <c r="BR14" t="n">
-        <v>4.08</v>
+        <v>4.07</v>
       </c>
       <c r="BS14" t="n">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="BT14" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="BU14" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="BV14" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="BW14" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="BX14" t="n">
         <v>2.81</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="BZ14" t="n">
         <v>0</v>
@@ -4223,38 +4223,38 @@
         <v>0</v>
       </c>
       <c r="CC14" t="n">
-        <v>20.51</v>
+        <v>20.49</v>
       </c>
       <c r="CD14" t="n">
         <v>0</v>
       </c>
       <c r="CE14" t="n">
-        <v>14.38</v>
+        <v>14.44</v>
       </c>
       <c r="CF14" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Gunn (G)</t>
+          <t>de Gea (G)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NOR</t>
+          <t>MUN</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="D15" t="n">
         <v>90</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7 (0)</t>
+          <t>33 (0)</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -4300,16 +4300,16 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>2.86</v>
+        <v>3.54</v>
       </c>
       <c r="U15" t="n">
-        <v>20.57</v>
+        <v>17.7</v>
       </c>
       <c r="V15" t="n">
-        <v>0.43</v>
+        <v>0.21</v>
       </c>
       <c r="W15" t="n">
-        <v>3.71</v>
+        <v>3.58</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -4330,13 +4330,13 @@
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>3.57</v>
+        <v>1.61</v>
       </c>
       <c r="AE15" t="n">
-        <v>1.29</v>
+        <v>0.27</v>
       </c>
       <c r="AF15" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="AG15" t="n">
         <v>0</v>
@@ -4348,22 +4348,22 @@
         <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>26.57</v>
+        <v>20.7</v>
       </c>
       <c r="AK15" t="n">
-        <v>17.29</v>
+        <v>14.24</v>
       </c>
       <c r="AL15" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AM15" t="n">
-        <v>10.14</v>
+        <v>6</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.43</v>
+        <v>1.45</v>
       </c>
       <c r="AO15" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AP15" t="n">
         <v>0</v>
@@ -4372,16 +4372,16 @@
         <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>38.14</v>
+        <v>28.64</v>
       </c>
       <c r="AS15" t="n">
         <v>0</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.57</v>
+        <v>1.61</v>
       </c>
       <c r="AU15" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="AV15" t="n">
         <v>0</v>
@@ -4414,10 +4414,10 @@
         <v>0</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="BG15" t="n">
-        <v>2.57</v>
+        <v>1.45</v>
       </c>
       <c r="BH15" t="n">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="BK15" t="n">
-        <v>8.43</v>
+        <v>5.39</v>
       </c>
       <c r="BL15" t="n">
-        <v>1.43</v>
+        <v>0.52</v>
       </c>
       <c r="BM15" t="n">
         <v>0</v>
@@ -4441,34 +4441,34 @@
         <v>0</v>
       </c>
       <c r="BO15" t="n">
-        <v>1.43</v>
+        <v>0.52</v>
       </c>
       <c r="BP15" t="n">
-        <v>20.14</v>
+        <v>13.36</v>
       </c>
       <c r="BQ15" t="n">
-        <v>13.86</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="BR15" t="n">
-        <v>6.71</v>
+        <v>4.79</v>
       </c>
       <c r="BS15" t="n">
-        <v>1.29</v>
+        <v>1.06</v>
       </c>
       <c r="BT15" t="n">
-        <v>3.14</v>
+        <v>2</v>
       </c>
       <c r="BU15" t="n">
-        <v>3.29</v>
+        <v>1.97</v>
       </c>
       <c r="BV15" t="n">
-        <v>2.49</v>
+        <v>1.53</v>
       </c>
       <c r="BW15" t="n">
-        <v>0.09</v>
+        <v>0.25</v>
       </c>
       <c r="BX15" t="n">
-        <v>3.86</v>
+        <v>3.39</v>
       </c>
       <c r="BY15" t="n">
         <v>0</v>
@@ -4480,19 +4480,19 @@
         <v>0</v>
       </c>
       <c r="CB15" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="CC15" t="n">
-        <v>34.14</v>
+        <v>25.71</v>
       </c>
       <c r="CD15" t="n">
         <v>0</v>
       </c>
       <c r="CE15" t="n">
-        <v>16.71</v>
+        <v>14.24</v>
       </c>
       <c r="CF15" t="n">
-        <v>1.71</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="16">
@@ -4758,23 +4758,23 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Schmeichel (G)</t>
+          <t>Pope (G)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LEI</t>
+          <t>BUR</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="D17" t="n">
         <v>90</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>29 (0)</t>
+          <t>30 (0)</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -4808,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -4820,16 +4820,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>3.29</v>
+        <v>3.37</v>
       </c>
       <c r="U17" t="n">
-        <v>19.17</v>
+        <v>18.63</v>
       </c>
       <c r="V17" t="n">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
       <c r="W17" t="n">
-        <v>3.52</v>
+        <v>3.53</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -4850,13 +4850,13 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>3.28</v>
+        <v>8.07</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.86</v>
+        <v>2.67</v>
       </c>
       <c r="AF17" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="AG17" t="n">
         <v>0</v>
@@ -4868,22 +4868,22 @@
         <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>31.72</v>
+        <v>26.03</v>
       </c>
       <c r="AK17" t="n">
-        <v>21.55</v>
+        <v>11.43</v>
       </c>
       <c r="AL17" t="n">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AM17" t="n">
-        <v>10.24</v>
+        <v>21.67</v>
       </c>
       <c r="AN17" t="n">
-        <v>2.97</v>
+        <v>8.27</v>
       </c>
       <c r="AO17" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="AP17" t="n">
         <v>0</v>
@@ -4892,16 +4892,16 @@
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>41.17</v>
+        <v>36.1</v>
       </c>
       <c r="AS17" t="n">
         <v>0</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.28</v>
+        <v>8.07</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.14</v>
+        <v>0.73</v>
       </c>
       <c r="AV17" t="n">
         <v>0</v>
@@ -4934,13 +4934,13 @@
         <v>0</v>
       </c>
       <c r="BF17" t="n">
-        <v>0.17</v>
+        <v>0.27</v>
       </c>
       <c r="BG17" t="n">
-        <v>1.66</v>
+        <v>1.3</v>
       </c>
       <c r="BH17" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="BI17" t="n">
         <v>0</v>
@@ -4949,10 +4949,10 @@
         <v>0</v>
       </c>
       <c r="BK17" t="n">
-        <v>7.93</v>
+        <v>9.9</v>
       </c>
       <c r="BL17" t="n">
-        <v>0.79</v>
+        <v>1.1</v>
       </c>
       <c r="BM17" t="n">
         <v>0</v>
@@ -4961,37 +4961,37 @@
         <v>0.03</v>
       </c>
       <c r="BO17" t="n">
-        <v>0.83</v>
+        <v>1.13</v>
       </c>
       <c r="BP17" t="n">
-        <v>15.62</v>
+        <v>15.9</v>
       </c>
       <c r="BQ17" t="n">
-        <v>10.93</v>
+        <v>10.57</v>
       </c>
       <c r="BR17" t="n">
-        <v>5.31</v>
+        <v>4.63</v>
       </c>
       <c r="BS17" t="n">
-        <v>1.14</v>
+        <v>0.7</v>
       </c>
       <c r="BT17" t="n">
-        <v>3.17</v>
+        <v>2.43</v>
       </c>
       <c r="BU17" t="n">
-        <v>2.38</v>
+        <v>1.87</v>
       </c>
       <c r="BV17" t="n">
-        <v>1.86</v>
+        <v>1.59</v>
       </c>
       <c r="BW17" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="BX17" t="n">
-        <v>3.55</v>
+        <v>3.13</v>
       </c>
       <c r="BY17" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="BZ17" t="n">
         <v>0</v>
@@ -5000,19 +5000,19 @@
         <v>0</v>
       </c>
       <c r="CB17" t="n">
-        <v>0.39</v>
+        <v>0.67</v>
       </c>
       <c r="CC17" t="n">
-        <v>29.57</v>
+        <v>23.49</v>
       </c>
       <c r="CD17" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="CE17" t="n">
-        <v>16.07</v>
+        <v>15.43</v>
       </c>
       <c r="CF17" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="18">
@@ -5278,23 +5278,23 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Pope (G)</t>
+          <t>Schmeichel (G)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BUR</t>
+          <t>LEI</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="D19" t="n">
         <v>90</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>28 (0)</t>
+          <t>31 (0)</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -5328,7 +5328,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -5340,16 +5340,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>3.37</v>
+        <v>3.24</v>
       </c>
       <c r="U19" t="n">
-        <v>18.14</v>
+        <v>19</v>
       </c>
       <c r="V19" t="n">
-        <v>0.29</v>
+        <v>0.35</v>
       </c>
       <c r="W19" t="n">
-        <v>3.43</v>
+        <v>3.45</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -5370,13 +5370,13 @@
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>7.89</v>
+        <v>3.16</v>
       </c>
       <c r="AE19" t="n">
-        <v>2.57</v>
+        <v>0.84</v>
       </c>
       <c r="AF19" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="AG19" t="n">
         <v>0</v>
@@ -5388,22 +5388,22 @@
         <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>25.96</v>
+        <v>31.71</v>
       </c>
       <c r="AK19" t="n">
-        <v>11.36</v>
+        <v>21.74</v>
       </c>
       <c r="AL19" t="n">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="AM19" t="n">
-        <v>21.68</v>
+        <v>10.16</v>
       </c>
       <c r="AN19" t="n">
-        <v>8.359999999999999</v>
+        <v>3.03</v>
       </c>
       <c r="AO19" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="AP19" t="n">
         <v>0</v>
@@ -5412,16 +5412,16 @@
         <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>35.64</v>
+        <v>41.06</v>
       </c>
       <c r="AS19" t="n">
         <v>0</v>
       </c>
       <c r="AT19" t="n">
-        <v>7.89</v>
+        <v>3.16</v>
       </c>
       <c r="AU19" t="n">
-        <v>0.75</v>
+        <v>0.13</v>
       </c>
       <c r="AV19" t="n">
         <v>0</v>
@@ -5454,13 +5454,13 @@
         <v>0</v>
       </c>
       <c r="BF19" t="n">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="BG19" t="n">
-        <v>1.36</v>
+        <v>1.65</v>
       </c>
       <c r="BH19" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="BI19" t="n">
         <v>0</v>
@@ -5469,49 +5469,49 @@
         <v>0</v>
       </c>
       <c r="BK19" t="n">
-        <v>9.68</v>
+        <v>7.81</v>
       </c>
       <c r="BL19" t="n">
-        <v>0.96</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="BM19" t="n">
         <v>0</v>
       </c>
       <c r="BN19" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="BO19" t="n">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="BP19" t="n">
-        <v>15.89</v>
+        <v>15.55</v>
       </c>
       <c r="BQ19" t="n">
-        <v>10.36</v>
+        <v>10.81</v>
       </c>
       <c r="BR19" t="n">
-        <v>4.57</v>
+        <v>5.29</v>
       </c>
       <c r="BS19" t="n">
-        <v>0.68</v>
+        <v>1.13</v>
       </c>
       <c r="BT19" t="n">
-        <v>2.36</v>
+        <v>3.26</v>
       </c>
       <c r="BU19" t="n">
-        <v>1.82</v>
+        <v>2.39</v>
       </c>
       <c r="BV19" t="n">
-        <v>1.57</v>
+        <v>1.85</v>
       </c>
       <c r="BW19" t="n">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="BX19" t="n">
-        <v>3.04</v>
+        <v>3.55</v>
       </c>
       <c r="BY19" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="BZ19" t="n">
         <v>0</v>
@@ -5520,41 +5520,41 @@
         <v>0</v>
       </c>
       <c r="CB19" t="n">
-        <v>0.71</v>
+        <v>0.36</v>
       </c>
       <c r="CC19" t="n">
-        <v>22.64</v>
+        <v>29.42</v>
       </c>
       <c r="CD19" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="CE19" t="n">
-        <v>15.14</v>
+        <v>16.1</v>
       </c>
       <c r="CF19" t="n">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Fabianski (G)</t>
+          <t>Dubravka (G)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>WHU</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="D20" t="n">
         <v>90</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>31 (0)</t>
+          <t>21 (0)</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -5600,16 +5600,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>3.7</v>
+        <v>3.47</v>
       </c>
       <c r="U20" t="n">
-        <v>17.23</v>
+        <v>16.86</v>
       </c>
       <c r="V20" t="n">
-        <v>0.16</v>
+        <v>0.29</v>
       </c>
       <c r="W20" t="n">
-        <v>3.42</v>
+        <v>3.43</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -5630,13 +5630,13 @@
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>2.61</v>
+        <v>4.19</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.71</v>
+        <v>1.62</v>
       </c>
       <c r="AF20" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="AG20" t="n">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="AJ20" t="n">
-        <v>22.29</v>
+        <v>28.1</v>
       </c>
       <c r="AK20" t="n">
-        <v>13.03</v>
+        <v>17.1</v>
       </c>
       <c r="AL20" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AM20" t="n">
-        <v>11.29</v>
+        <v>17.71</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.9</v>
+        <v>7.67</v>
       </c>
       <c r="AO20" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="AP20" t="n">
         <v>0</v>
@@ -5672,13 +5672,13 @@
         <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>31.16</v>
+        <v>35.9</v>
       </c>
       <c r="AS20" t="n">
         <v>0</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.61</v>
+        <v>4.19</v>
       </c>
       <c r="AU20" t="n">
         <v>0.1</v>
@@ -5714,64 +5714,64 @@
         <v>0</v>
       </c>
       <c r="BF20" t="n">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="BG20" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="BH20" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="BI20" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="BJ20" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BK20" t="n">
-        <v>7.13</v>
+        <v>7.67</v>
       </c>
       <c r="BL20" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BO20" t="n">
         <v>0.52</v>
       </c>
-      <c r="BM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN20" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="BO20" t="n">
-        <v>0.55</v>
-      </c>
       <c r="BP20" t="n">
-        <v>13.71</v>
+        <v>12.86</v>
       </c>
       <c r="BQ20" t="n">
-        <v>8.869999999999999</v>
+        <v>8.67</v>
       </c>
       <c r="BR20" t="n">
-        <v>4.32</v>
+        <v>3.86</v>
       </c>
       <c r="BS20" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="BT20" t="n">
-        <v>2.35</v>
+        <v>2.67</v>
       </c>
       <c r="BU20" t="n">
-        <v>1.58</v>
+        <v>2.1</v>
       </c>
       <c r="BV20" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="BW20" t="n">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
       <c r="BX20" t="n">
-        <v>2.97</v>
+        <v>2.52</v>
       </c>
       <c r="BY20" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="BZ20" t="n">
         <v>0</v>
@@ -5783,16 +5783,16 @@
         <v>0</v>
       </c>
       <c r="CC20" t="n">
-        <v>23.21</v>
+        <v>20.83</v>
       </c>
       <c r="CD20" t="n">
         <v>0</v>
       </c>
       <c r="CE20" t="n">
-        <v>14.03</v>
+        <v>13.43</v>
       </c>
       <c r="CF20" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>24 (0)</t>
+          <t>25 (0)</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -5860,16 +5860,16 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>3.35</v>
+        <v>3.39</v>
       </c>
       <c r="U21" t="n">
-        <v>18.67</v>
+        <v>18.8</v>
       </c>
       <c r="V21" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="W21" t="n">
-        <v>3.38</v>
+        <v>3.36</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -5890,7 +5890,7 @@
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>3.75</v>
+        <v>3.64</v>
       </c>
       <c r="AE21" t="n">
         <v>0.92</v>
@@ -5908,19 +5908,19 @@
         <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>31.5</v>
+        <v>31.24</v>
       </c>
       <c r="AK21" t="n">
         <v>19.96</v>
       </c>
       <c r="AL21" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AM21" t="n">
-        <v>11.96</v>
+        <v>11.56</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.38</v>
+        <v>3.28</v>
       </c>
       <c r="AO21" t="n">
         <v>28</v>
@@ -5932,16 +5932,16 @@
         <v>0.04</v>
       </c>
       <c r="AR21" t="n">
-        <v>42.96</v>
+        <v>43.04</v>
       </c>
       <c r="AS21" t="n">
         <v>0</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.71</v>
+        <v>3.6</v>
       </c>
       <c r="AU21" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AV21" t="n">
         <v>0</v>
@@ -5974,10 +5974,10 @@
         <v>0</v>
       </c>
       <c r="BF21" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="BG21" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="BH21" t="n">
         <v>0.04</v>
@@ -5989,7 +5989,7 @@
         <v>100</v>
       </c>
       <c r="BK21" t="n">
-        <v>8.710000000000001</v>
+        <v>8.92</v>
       </c>
       <c r="BL21" t="n">
         <v>1</v>
@@ -6004,31 +6004,31 @@
         <v>1</v>
       </c>
       <c r="BP21" t="n">
-        <v>15.29</v>
+        <v>15.48</v>
       </c>
       <c r="BQ21" t="n">
-        <v>9.83</v>
+        <v>9.92</v>
       </c>
       <c r="BR21" t="n">
-        <v>5.42</v>
+        <v>5.56</v>
       </c>
       <c r="BS21" t="n">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="BT21" t="n">
-        <v>2.17</v>
+        <v>2.16</v>
       </c>
       <c r="BU21" t="n">
-        <v>2.29</v>
+        <v>2.24</v>
       </c>
       <c r="BV21" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="BW21" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="BX21" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="BY21" t="n">
         <v>0.04</v>
@@ -6040,41 +6040,41 @@
         <v>0</v>
       </c>
       <c r="CB21" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="CC21" t="n">
-        <v>27.19</v>
+        <v>27.73</v>
       </c>
       <c r="CD21" t="n">
         <v>0.05</v>
       </c>
       <c r="CE21" t="n">
-        <v>16.17</v>
+        <v>16.4</v>
       </c>
       <c r="CF21" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Dubravka (G)</t>
+          <t>Fabianski (G)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>WHU</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>90</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>19 (0)</t>
+          <t>32 (0)</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -6120,16 +6120,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>3.36</v>
+        <v>3.64</v>
       </c>
       <c r="U22" t="n">
-        <v>16.89</v>
+        <v>16.69</v>
       </c>
       <c r="V22" t="n">
-        <v>0.32</v>
+        <v>0.16</v>
       </c>
       <c r="W22" t="n">
-        <v>3.37</v>
+        <v>3.34</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -6150,13 +6150,13 @@
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>3.89</v>
+        <v>2.56</v>
       </c>
       <c r="AE22" t="n">
-        <v>1.58</v>
+        <v>0.72</v>
       </c>
       <c r="AF22" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="AG22" t="n">
         <v>0</v>
@@ -6168,22 +6168,22 @@
         <v>0</v>
       </c>
       <c r="AJ22" t="n">
-        <v>28.63</v>
+        <v>22.06</v>
       </c>
       <c r="AK22" t="n">
-        <v>17.58</v>
+        <v>12.97</v>
       </c>
       <c r="AL22" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AM22" t="n">
-        <v>17.84</v>
+        <v>11.06</v>
       </c>
       <c r="AN22" t="n">
-        <v>7.84</v>
+        <v>3.81</v>
       </c>
       <c r="AO22" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AP22" t="n">
         <v>0</v>
@@ -6192,16 +6192,16 @@
         <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>36.58</v>
+        <v>30.88</v>
       </c>
       <c r="AS22" t="n">
         <v>0</v>
       </c>
       <c r="AT22" t="n">
-        <v>3.89</v>
+        <v>2.56</v>
       </c>
       <c r="AU22" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="AV22" t="n">
         <v>0</v>
@@ -6234,22 +6234,22 @@
         <v>0</v>
       </c>
       <c r="BF22" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="BG22" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="BH22" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="BI22" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="BJ22" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BK22" t="n">
-        <v>7.84</v>
+        <v>7.06</v>
       </c>
       <c r="BL22" t="n">
         <v>0.53</v>
@@ -6258,40 +6258,40 @@
         <v>0</v>
       </c>
       <c r="BN22" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="BO22" t="n">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="BP22" t="n">
-        <v>13.26</v>
+        <v>13.56</v>
       </c>
       <c r="BQ22" t="n">
         <v>8.84</v>
       </c>
       <c r="BR22" t="n">
-        <v>4.05</v>
+        <v>4.22</v>
       </c>
       <c r="BS22" t="n">
-        <v>0.84</v>
+        <v>0.97</v>
       </c>
       <c r="BT22" t="n">
-        <v>2.63</v>
+        <v>2.34</v>
       </c>
       <c r="BU22" t="n">
-        <v>2.32</v>
+        <v>1.59</v>
       </c>
       <c r="BV22" t="n">
-        <v>1.54</v>
+        <v>1.37</v>
       </c>
       <c r="BW22" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="BX22" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="BY22" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="BZ22" t="n">
         <v>0</v>
@@ -6303,16 +6303,16 @@
         <v>0</v>
       </c>
       <c r="CC22" t="n">
-        <v>21.76</v>
+        <v>22.49</v>
       </c>
       <c r="CD22" t="n">
         <v>0</v>
       </c>
       <c r="CE22" t="n">
-        <v>13.74</v>
+        <v>13.59</v>
       </c>
       <c r="CF22" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="23">
@@ -6334,7 +6334,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>30 (0)</t>
+          <t>32 (0)</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -6368,10 +6368,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="R23" t="n">
         <v>0.03</v>
@@ -6380,16 +6380,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>3.63</v>
+        <v>3.6</v>
       </c>
       <c r="U23" t="n">
-        <v>18.33</v>
+        <v>18.25</v>
       </c>
       <c r="V23" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="W23" t="n">
-        <v>3.3</v>
+        <v>3.31</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -6410,13 +6410,13 @@
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>5.63</v>
+        <v>5.78</v>
       </c>
       <c r="AE23" t="n">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="AF23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG23" t="n">
         <v>0</v>
@@ -6428,19 +6428,19 @@
         <v>0</v>
       </c>
       <c r="AJ23" t="n">
-        <v>37.17</v>
+        <v>37.25</v>
       </c>
       <c r="AK23" t="n">
-        <v>25.57</v>
+        <v>25.41</v>
       </c>
       <c r="AL23" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AM23" t="n">
-        <v>12.37</v>
+        <v>12.59</v>
       </c>
       <c r="AN23" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="AO23" t="n">
         <v>22</v>
@@ -6452,16 +6452,16 @@
         <v>0.03</v>
       </c>
       <c r="AR23" t="n">
-        <v>47.83</v>
+        <v>47.84</v>
       </c>
       <c r="AS23" t="n">
         <v>0</v>
       </c>
       <c r="AT23" t="n">
-        <v>5.63</v>
+        <v>5.78</v>
       </c>
       <c r="AU23" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AV23" t="n">
         <v>0</v>
@@ -6494,25 +6494,25 @@
         <v>0</v>
       </c>
       <c r="BF23" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="BG23" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="BH23" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="BI23" t="n">
         <v>0.03</v>
       </c>
       <c r="BJ23" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="BK23" t="n">
-        <v>8.5</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="BL23" t="n">
-        <v>0.63</v>
+        <v>0.66</v>
       </c>
       <c r="BM23" t="n">
         <v>0</v>
@@ -6521,37 +6521,37 @@
         <v>0</v>
       </c>
       <c r="BO23" t="n">
-        <v>0.63</v>
+        <v>0.66</v>
       </c>
       <c r="BP23" t="n">
-        <v>12.5</v>
+        <v>12.41</v>
       </c>
       <c r="BQ23" t="n">
-        <v>7.7</v>
+        <v>7.59</v>
       </c>
       <c r="BR23" t="n">
-        <v>4.13</v>
+        <v>4.03</v>
       </c>
       <c r="BS23" t="n">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="BT23" t="n">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="BU23" t="n">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="BV23" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="BW23" t="n">
         <v>0.3</v>
       </c>
       <c r="BX23" t="n">
-        <v>2.87</v>
+        <v>2.75</v>
       </c>
       <c r="BY23" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="BZ23" t="n">
         <v>0.03</v>
@@ -6560,41 +6560,41 @@
         <v>0</v>
       </c>
       <c r="CB23" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="CC23" t="n">
-        <v>23.43</v>
+        <v>22.54</v>
       </c>
       <c r="CD23" t="n">
         <v>0.08</v>
       </c>
       <c r="CE23" t="n">
-        <v>15.43</v>
+        <v>15.16</v>
       </c>
       <c r="CF23" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Butland (G)</t>
+          <t>Forster (G)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CRY</t>
+          <t>SOU</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>4.4</v>
       </c>
       <c r="D24" t="n">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6 (1)</t>
+          <t>16 (0)</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -6640,16 +6640,16 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>3.39</v>
+        <v>3.35</v>
       </c>
       <c r="U24" t="n">
-        <v>13.5</v>
+        <v>17.94</v>
       </c>
       <c r="V24" t="n">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="W24" t="n">
-        <v>3.17</v>
+        <v>3.25</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -6670,13 +6670,13 @@
         <v>0</v>
       </c>
       <c r="AD24" t="n">
-        <v>2.83</v>
+        <v>6.12</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.33</v>
+        <v>1.56</v>
       </c>
       <c r="AF24" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AG24" t="n">
         <v>0</v>
@@ -6688,22 +6688,22 @@
         <v>0</v>
       </c>
       <c r="AJ24" t="n">
-        <v>28</v>
+        <v>28.88</v>
       </c>
       <c r="AK24" t="n">
-        <v>19.17</v>
+        <v>15.31</v>
       </c>
       <c r="AL24" t="n">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="AM24" t="n">
-        <v>8.83</v>
+        <v>17</v>
       </c>
       <c r="AN24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AO24" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AP24" t="n">
         <v>0</v>
@@ -6712,16 +6712,16 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>36.33</v>
+        <v>39.44</v>
       </c>
       <c r="AS24" t="n">
         <v>0</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.83</v>
+        <v>6.12</v>
       </c>
       <c r="AU24" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AV24" t="n">
         <v>0</v>
@@ -6754,10 +6754,10 @@
         <v>0</v>
       </c>
       <c r="BF24" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="BG24" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="BH24" t="n">
         <v>0</v>
@@ -6769,10 +6769,10 @@
         <v>0</v>
       </c>
       <c r="BK24" t="n">
-        <v>5.67</v>
+        <v>7.44</v>
       </c>
       <c r="BL24" t="n">
-        <v>1.17</v>
+        <v>1.75</v>
       </c>
       <c r="BM24" t="n">
         <v>0</v>
@@ -6781,37 +6781,37 @@
         <v>0</v>
       </c>
       <c r="BO24" t="n">
-        <v>1.17</v>
+        <v>1.75</v>
       </c>
       <c r="BP24" t="n">
-        <v>12.17</v>
+        <v>13.06</v>
       </c>
       <c r="BQ24" t="n">
-        <v>7.17</v>
+        <v>8.56</v>
       </c>
       <c r="BR24" t="n">
-        <v>3.17</v>
+        <v>5.56</v>
       </c>
       <c r="BS24" t="n">
-        <v>1.17</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="BT24" t="n">
-        <v>2.83</v>
+        <v>2.19</v>
       </c>
       <c r="BU24" t="n">
-        <v>2</v>
+        <v>3.06</v>
       </c>
       <c r="BV24" t="n">
-        <v>1.25</v>
+        <v>1.97</v>
       </c>
       <c r="BW24" t="n">
-        <v>0.34</v>
+        <v>0.21</v>
       </c>
       <c r="BX24" t="n">
-        <v>1.67</v>
+        <v>3.69</v>
       </c>
       <c r="BY24" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="BZ24" t="n">
         <v>0</v>
@@ -6823,38 +6823,38 @@
         <v>0</v>
       </c>
       <c r="CC24" t="n">
-        <v>17.97</v>
+        <v>29.45</v>
       </c>
       <c r="CD24" t="n">
         <v>0</v>
       </c>
       <c r="CE24" t="n">
-        <v>11</v>
+        <v>15.69</v>
       </c>
       <c r="CF24" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Pickford (G)</t>
+          <t>Butland (G)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>EVE</t>
+          <t>CRY</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="D25" t="n">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>28 (0)</t>
+          <t>6 (1)</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -6888,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -6900,16 +6900,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>3.46</v>
+        <v>3.39</v>
       </c>
       <c r="U25" t="n">
-        <v>17.43</v>
+        <v>13.5</v>
       </c>
       <c r="V25" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="W25" t="n">
-        <v>3.11</v>
+        <v>3.17</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -6930,13 +6930,13 @@
         <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>9.82</v>
+        <v>2.83</v>
       </c>
       <c r="AE25" t="n">
-        <v>2.54</v>
+        <v>0.33</v>
       </c>
       <c r="AF25" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="AG25" t="n">
         <v>0</v>
@@ -6948,40 +6948,40 @@
         <v>0</v>
       </c>
       <c r="AJ25" t="n">
-        <v>28.82</v>
+        <v>28</v>
       </c>
       <c r="AK25" t="n">
-        <v>14.14</v>
+        <v>19.17</v>
       </c>
       <c r="AL25" t="n">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="AM25" t="n">
-        <v>18.11</v>
+        <v>8.83</v>
       </c>
       <c r="AN25" t="n">
-        <v>5.39</v>
+        <v>2</v>
       </c>
       <c r="AO25" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AP25" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AQ25" t="n">
         <v>0</v>
       </c>
       <c r="AR25" t="n">
-        <v>38.18</v>
+        <v>36.33</v>
       </c>
       <c r="AS25" t="n">
         <v>0</v>
       </c>
       <c r="AT25" t="n">
-        <v>9.82</v>
+        <v>2.83</v>
       </c>
       <c r="AU25" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AV25" t="n">
         <v>0</v>
@@ -7014,64 +7014,64 @@
         <v>0</v>
       </c>
       <c r="BF25" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="BG25" t="n">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="BH25" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="BI25" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="BJ25" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BK25" t="n">
-        <v>8.18</v>
+        <v>5.67</v>
       </c>
       <c r="BL25" t="n">
-        <v>0.93</v>
+        <v>1.17</v>
       </c>
       <c r="BM25" t="n">
         <v>0</v>
       </c>
       <c r="BN25" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="BO25" t="n">
-        <v>0.96</v>
+        <v>1.17</v>
       </c>
       <c r="BP25" t="n">
-        <v>13.25</v>
+        <v>12.17</v>
       </c>
       <c r="BQ25" t="n">
-        <v>8.210000000000001</v>
+        <v>7.17</v>
       </c>
       <c r="BR25" t="n">
-        <v>4.96</v>
+        <v>3.17</v>
       </c>
       <c r="BS25" t="n">
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="BT25" t="n">
-        <v>2.29</v>
+        <v>2.83</v>
       </c>
       <c r="BU25" t="n">
-        <v>2.54</v>
+        <v>2</v>
       </c>
       <c r="BV25" t="n">
-        <v>1.71</v>
+        <v>1.25</v>
       </c>
       <c r="BW25" t="n">
-        <v>0.24</v>
+        <v>0.34</v>
       </c>
       <c r="BX25" t="n">
-        <v>3.36</v>
+        <v>1.67</v>
       </c>
       <c r="BY25" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BZ25" t="n">
         <v>0</v>
@@ -7080,41 +7080,41 @@
         <v>0</v>
       </c>
       <c r="CB25" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="CC25" t="n">
-        <v>24.58</v>
+        <v>17.97</v>
       </c>
       <c r="CD25" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="CE25" t="n">
-        <v>15.29</v>
+        <v>11</v>
       </c>
       <c r="CF25" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Foster (G)</t>
+          <t>Pickford (G)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>WAT</t>
+          <t>EVE</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="D26" t="n">
         <v>90</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>20 (0)</t>
+          <t>29 (0)</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -7139,16 +7139,16 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -7157,19 +7157,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>3.2</v>
+        <v>3.48</v>
       </c>
       <c r="U26" t="n">
-        <v>16.25</v>
+        <v>17.28</v>
       </c>
       <c r="V26" t="n">
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
       <c r="W26" t="n">
-        <v>3.1</v>
+        <v>3.07</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -7190,13 +7190,13 @@
         <v>0</v>
       </c>
       <c r="AD26" t="n">
-        <v>8.1</v>
+        <v>10.1</v>
       </c>
       <c r="AE26" t="n">
-        <v>2.3</v>
+        <v>2.72</v>
       </c>
       <c r="AF26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG26" t="n">
         <v>0</v>
@@ -7208,40 +7208,40 @@
         <v>0</v>
       </c>
       <c r="AJ26" t="n">
-        <v>31.6</v>
+        <v>29.03</v>
       </c>
       <c r="AK26" t="n">
-        <v>14.1</v>
+        <v>14.28</v>
       </c>
       <c r="AL26" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AM26" t="n">
-        <v>22.15</v>
+        <v>18.31</v>
       </c>
       <c r="AN26" t="n">
-        <v>6.6</v>
+        <v>5.55</v>
       </c>
       <c r="AO26" t="n">
         <v>30</v>
       </c>
       <c r="AP26" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AQ26" t="n">
         <v>0</v>
       </c>
       <c r="AR26" t="n">
-        <v>38.85</v>
+        <v>38.34</v>
       </c>
       <c r="AS26" t="n">
         <v>0</v>
       </c>
       <c r="AT26" t="n">
-        <v>8.1</v>
+        <v>10.1</v>
       </c>
       <c r="AU26" t="n">
-        <v>0.7</v>
+        <v>0.76</v>
       </c>
       <c r="AV26" t="n">
         <v>0</v>
@@ -7274,64 +7274,64 @@
         <v>0</v>
       </c>
       <c r="BF26" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="BG26" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="BH26" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="BI26" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="BJ26" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BK26" t="n">
-        <v>9</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="BL26" t="n">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="BM26" t="n">
         <v>0</v>
       </c>
       <c r="BN26" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="BO26" t="n">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="BP26" t="n">
-        <v>14.2</v>
+        <v>13.17</v>
       </c>
       <c r="BQ26" t="n">
-        <v>8.949999999999999</v>
+        <v>8.17</v>
       </c>
       <c r="BR26" t="n">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="BS26" t="n">
         <v>1</v>
       </c>
       <c r="BT26" t="n">
-        <v>2.9</v>
+        <v>2.24</v>
       </c>
       <c r="BU26" t="n">
-        <v>1.9</v>
+        <v>2.45</v>
       </c>
       <c r="BV26" t="n">
-        <v>1.45</v>
+        <v>1.68</v>
       </c>
       <c r="BW26" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="BX26" t="n">
-        <v>2.3</v>
+        <v>3.31</v>
       </c>
       <c r="BY26" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="BZ26" t="n">
         <v>0</v>
@@ -7340,41 +7340,41 @@
         <v>0</v>
       </c>
       <c r="CB26" t="n">
-        <v>0.5</v>
+        <v>1.48</v>
       </c>
       <c r="CC26" t="n">
-        <v>19.04</v>
+        <v>24.26</v>
       </c>
       <c r="CD26" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="CE26" t="n">
-        <v>13.25</v>
+        <v>15.21</v>
       </c>
       <c r="CF26" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Forster (G)</t>
+          <t>Foster (G)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SOU</t>
+          <t>WAT</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="D27" t="n">
         <v>90</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>14 (0)</t>
+          <t>21 (0)</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -7399,16 +7399,16 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -7417,19 +7417,19 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="T27" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="U27" t="n">
-        <v>16.86</v>
+        <v>16.19</v>
       </c>
       <c r="V27" t="n">
         <v>0.29</v>
       </c>
       <c r="W27" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -7450,13 +7450,13 @@
         <v>0</v>
       </c>
       <c r="AD27" t="n">
-        <v>5.86</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="AE27" t="n">
-        <v>1.5</v>
+        <v>2.29</v>
       </c>
       <c r="AF27" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AG27" t="n">
         <v>0</v>
@@ -7468,19 +7468,19 @@
         <v>0</v>
       </c>
       <c r="AJ27" t="n">
-        <v>28.86</v>
+        <v>31.19</v>
       </c>
       <c r="AK27" t="n">
-        <v>15.71</v>
+        <v>13.86</v>
       </c>
       <c r="AL27" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AM27" t="n">
-        <v>16.43</v>
+        <v>21.9</v>
       </c>
       <c r="AN27" t="n">
-        <v>4.93</v>
+        <v>6.57</v>
       </c>
       <c r="AO27" t="n">
         <v>30</v>
@@ -7492,16 +7492,16 @@
         <v>0</v>
       </c>
       <c r="AR27" t="n">
-        <v>39.36</v>
+        <v>38.43</v>
       </c>
       <c r="AS27" t="n">
         <v>0</v>
       </c>
       <c r="AT27" t="n">
-        <v>5.86</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="AU27" t="n">
-        <v>0.21</v>
+        <v>0.67</v>
       </c>
       <c r="AV27" t="n">
         <v>0</v>
@@ -7537,7 +7537,7 @@
         <v>0.14</v>
       </c>
       <c r="BG27" t="n">
-        <v>1.86</v>
+        <v>1.71</v>
       </c>
       <c r="BH27" t="n">
         <v>0</v>
@@ -7549,10 +7549,10 @@
         <v>0</v>
       </c>
       <c r="BK27" t="n">
-        <v>7.5</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="BL27" t="n">
-        <v>1.43</v>
+        <v>0.48</v>
       </c>
       <c r="BM27" t="n">
         <v>0</v>
@@ -7561,37 +7561,37 @@
         <v>0</v>
       </c>
       <c r="BO27" t="n">
-        <v>1.43</v>
+        <v>0.48</v>
       </c>
       <c r="BP27" t="n">
-        <v>12.14</v>
+        <v>14.29</v>
       </c>
       <c r="BQ27" t="n">
-        <v>8.07</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="BR27" t="n">
-        <v>5.5</v>
+        <v>4.14</v>
       </c>
       <c r="BS27" t="n">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="BT27" t="n">
-        <v>1.93</v>
+        <v>2.86</v>
       </c>
       <c r="BU27" t="n">
-        <v>3.07</v>
+        <v>1.95</v>
       </c>
       <c r="BV27" t="n">
-        <v>1.96</v>
+        <v>1.47</v>
       </c>
       <c r="BW27" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="BX27" t="n">
-        <v>3.5</v>
+        <v>2.33</v>
       </c>
       <c r="BY27" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BZ27" t="n">
         <v>0</v>
@@ -7600,19 +7600,19 @@
         <v>0</v>
       </c>
       <c r="CB27" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="CC27" t="n">
-        <v>28.24</v>
+        <v>18.98</v>
       </c>
       <c r="CD27" t="n">
         <v>0</v>
       </c>
       <c r="CE27" t="n">
-        <v>15.14</v>
+        <v>13.33</v>
       </c>
       <c r="CF27" t="n">
-        <v>0.93</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="28">
